--- a/documentos/CSUQ para Integrador (respuestas).xlsx
+++ b/documentos/CSUQ para Integrador (respuestas).xlsx
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -136,6 +136,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -676,63 +679,125 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="3" t="s">
+    <row r="6">
+      <c r="A6" s="4">
+        <v>44354.07554145833</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1">
-        <f>AVERAGE(B2:T5)</f>
-        <v>6.157894737</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ref="E7:E10" si="1">(D7*100/7)</f>
-        <v>87.96992481</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="1">
+        <f>AVERAGE(B2:T6)</f>
+        <v>6.147368421</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E11" si="1">(D8*100/7)</f>
+        <v>87.81954887</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1">
-        <f>AVERAGE(B2:G5)</f>
-        <v>6.458333333</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>92.26190476</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" s="1">
-        <f>AVERAGE(H2:M5)</f>
-        <v>5.791666667</v>
+        <f>AVERAGE(B2:G6)</f>
+        <v>6.466666667</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>82.73809524</v>
+        <v>92.38095238</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
-        <f>AVERAGE(N2:P5)</f>
-        <v>6.083333333</v>
+        <f>AVERAGE(H2:M6)</f>
+        <v>5.733333333</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>86.9047619</v>
+        <v>81.9047619</v>
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <f>AVERAGE(N2:P6)</f>
+        <v>6.066666667</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>86.66666667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
